--- a/biology/Botanique/Smilacaceae/Smilacaceae.xlsx
+++ b/biology/Botanique/Smilacaceae/Smilacaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Smilacacées regroupe des plantes monocotylédones ; elle comprend 370 espèces réparties en 2 ou 3 genres.
 Ce sont des plantes herbacées ou des lianes, pérennes, rhizomateuses ou tubéreuses, des  régions tempérées à tropicales. C'est une famille largement répandue.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Smilax dérivé du grec 'σµῖλαξ' smīlax, et du latin smīlax smīlăcis smilax, sorte d'yeuse (chêne vert)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Smilax dérivé du grec 'σµῖλαξ' smīlax, et du latin smīlax smīlăcis smilax, sorte d'yeuse (chêne vert).
 </t>
         </is>
       </c>
@@ -543,20 +557,22 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010)[2] et Angiosperm Phylogeny Website                        (19 mai 2010)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010) et Angiosperm Phylogeny Website                        (19 mai 2010) :
 genre Heterosmilax Kunth (1850)
 genre Smilax L. (1753)
-Selon NCBI  (16 avr. 2010)[4] :
+Selon NCBI  (16 avr. 2010) :
 genre Heterosmilax
 genre Lapageria
 genre Smilax
-Selon DELTA Angio           (16 avr. 2010)[5] :
+Selon DELTA Angio           (16 avr. 2010) :
 genre Heterosmilax
 genre Pseudosmilax (Syn. Heterosmilax)
 genre Smilax
-Selon ITIS      (16 avr. 2010)[6] :
+Selon ITIS      (16 avr. 2010) :
 genre Smilax L.</t>
         </is>
       </c>
@@ -585,9 +601,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (16 avr. 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (16 avr. 2010) :
 genre Heterosmilax
 Heterosmilax japonica
 genre Lapageria
